--- a/test_datas/test_data_info.xlsx
+++ b/test_datas/test_data_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium\ZenTaoTestPro\test_datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5AAE8E-4442-4226-B89E-EDCF3221F4DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C6364A-BEC4-4A9A-9A28-C1CC6B92C913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>

--- a/test_datas/test_data_info.xlsx
+++ b/test_datas/test_data_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium\ZenTaoTestPro\test_datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C6364A-BEC4-4A9A-9A28-C1CC6B92C913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F35409-A896-41E1-B3C7-75BA647E8F02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
   <si>
     <t>测试方法名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +121,26 @@
   </si>
   <si>
     <t>test_login_fail用例执行失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_quit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用户退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_quit登录失败'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuitTest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -190,6 +210,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,7 +497,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -969,7 +992,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1020,22 +1043,22 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>15</v>
@@ -1048,30 +1071,14 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
